--- a/medicine/Psychotrope/Café_Gobillard/Café_Gobillard.xlsx
+++ b/medicine/Psychotrope/Café_Gobillard/Café_Gobillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Gobillard</t>
+          <t>Café_Gobillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Café Gobillard était un café-restaurant de la place de la Bourse à Paris, fréquenté par les écrivains et les politiques, parmi lesquels Jean-Pierre de Montalivet et Alexandre Dumas.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Gobillard</t>
+          <t>Café_Gobillard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Café Gobillard, appelé aussi Café de la Bourse, a été fondé au XVIIIe siècle en face de l'ex-couvent des Filles-Saint-Thomas, devenu le palais Brongniart. L'autre institution de la place était juste en face : le Restaurant Champeaux. Les deux établissements se faisaient face, dans le prolongement de la rue Vivienne. Il a pris son nom du tenancier du Café du théâtre des Nouveautés[1], situé juste à côté.
-Le Café Gobillard est tenu par Gobillard, un « jeune homme hospitalier […] prévenant, aimable, de gaies et bonnes manières », selon le Nouveau Tableau de Paris, au XIXe siècle[2] de madame Charles-Béchet, en 1834, l'éditrice des romans d'Honoré de Balzac.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Café Gobillard, appelé aussi Café de la Bourse, a été fondé au XVIIIe siècle en face de l'ex-couvent des Filles-Saint-Thomas, devenu le palais Brongniart. L'autre institution de la place était juste en face : le Restaurant Champeaux. Les deux établissements se faisaient face, dans le prolongement de la rue Vivienne. Il a pris son nom du tenancier du Café du théâtre des Nouveautés, situé juste à côté.
+Le Café Gobillard est tenu par Gobillard, un « jeune homme hospitalier […] prévenant, aimable, de gaies et bonnes manières », selon le Nouveau Tableau de Paris, au XIXe siècle de madame Charles-Béchet, en 1834, l'éditrice des romans d'Honoré de Balzac.
 Après avoir participé à la révolution de Juillet, il « a rétabli les soupers » et en a fait « l'arche sainte qui a recueilli précieusement les privilégiés échappés au Déluge où se sont englouties nos vieilles coutumes ». Son café-restaurant est « le quartier général des folies de l'époque ». Il devient ensuite commis-voyageur puis écrivain-journaliste.
 Le tenancier du café a inspiré pour sa personnalité Félix Gaudissart, alias L'Illustre Gaudissart, personnage central du roman éponyme d'Honoré de Balzac et d'autres œuvres du romancier.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Gobillard</t>
+          <t>Café_Gobillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Clients célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses habitués célèbres, il y eut au XIXe siècle Jean-Pierre de Montalivet et Alexandre Dumas.
 </t>
